--- a/2020-07_Tőke_Tamás_PRB-374_gkelsz.xlsx
+++ b/2020-07_Tőke_Tamás_PRB-374_gkelsz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\TT_GIT\Útnyilvántartó Projekt\UtnyilvantartoJava\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TT_GIT\UtnyilvantartoJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67076C0C-E507-453A-AC58-A288AAD2E2DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1278416-46E5-4EEB-A868-A54CF2274BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nyomtat" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>ÚTNYILVÁNTARTÁS</t>
   </si>
@@ -126,7 +128,10 @@
     <t>PRB-374</t>
   </si>
   <si>
-    <t>95420</t>
+    <t>97564</t>
+  </si>
+  <si>
+    <t>97936</t>
   </si>
   <si>
     <t>Tőke Tamás</t>
@@ -138,37 +143,34 @@
     <t>5,7</t>
   </si>
   <si>
+    <t>20.7</t>
+  </si>
+  <si>
     <t>2020-07-01</t>
   </si>
   <si>
+    <t>Magán</t>
+  </si>
+  <si>
+    <t>Magánhasználat</t>
+  </si>
+  <si>
     <t>Hibajavítás</t>
   </si>
   <si>
     <t>Székesfehérvár Udvardi utca 1/A</t>
   </si>
   <si>
-    <t>Mezőberény Kossuth tér 13.</t>
-  </si>
-  <si>
-    <t>AKHB2092/K &amp; H BANK ZRT.</t>
+    <t>Csömör Szabadság út 16.</t>
+  </si>
+  <si>
+    <t>S6T65121MTB Magyar Takarékszövetkezeti Bank</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
     <t>telephely/telephely</t>
-  </si>
-  <si>
-    <t>Debrecen Füredi út 27.</t>
-  </si>
-  <si>
-    <t>AKHB2072/K &amp; H BANK ZRT.</t>
-  </si>
-  <si>
-    <t>Magán</t>
-  </si>
-  <si>
-    <t>Magánhasználat</t>
   </si>
 </sst>
 </file>
@@ -1028,25 +1030,25 @@
   </sheetPr>
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="22" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="9.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="22" width="19.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="26.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="27.33203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="9" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="32" width="12.28515625" collapsed="true"/>
-    <col min="11" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" style="1" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="32" width="12.33203125" collapsed="true"/>
+    <col min="11" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1059,7 +1061,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1072,7 +1074,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1084,11 +1086,11 @@
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1097,17 +1099,17 @@
         <v>30</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1119,45 +1121,43 @@
         <v>2</v>
       </c>
       <c r="G5" s="8" t="str">
-        <f>SUM(I10:I57)</f>
-        <v>1249</v>
+        <f>SUM(I10:I105)</f>
+        <v>372</v>
       </c>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="8" t="str">
-        <f>C5+G5</f>
-        <v>95420</v>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="9" t="e">
+      <c r="G6" s="9" t="str">
         <f>100*G7/G5</f>
-        <v>#DIV/0!</v>
+        <v>5.564</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="30">
-        <f>SUM(H10:H57)</f>
-        <v>0</v>
+      <c r="G7" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
         <v>17</v>
@@ -1211,84 +1211,84 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="26" t="n">
         <f>IF(B10&lt;&gt;"",$C$5+I10,"")</f>
-        <v>95674.0</v>
+        <v>97675.0</v>
       </c>
       <c r="H10" s="21" t="n">
-        <v>0.0</v>
+        <v>12.2</v>
       </c>
       <c r="I10" s="21" t="n">
-        <v>254.0</v>
+        <v>111.0</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>2</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" s="26" t="n">
         <f>IF(B11&lt;&gt;"",G10+I11,"")</f>
-        <v>95928.0</v>
+        <v>97786.0</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I11" s="21" t="n">
-        <v>254.0</v>
+        <v>111.0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>42</v>
@@ -1298,91 +1298,75 @@
       </c>
       <c r="G12" s="26" t="n">
         <f t="shared" ref="G12:G54" si="0">IF(B12&lt;&gt;"",G11+I12,"")</f>
-        <v>96237.0</v>
+        <v>97861.0</v>
       </c>
       <c r="H12" s="21" t="n">
-        <v>0.0</v>
+        <v>8.5</v>
       </c>
       <c r="I12" s="21" t="n">
-        <v>309.0</v>
+        <v>75.0</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
       <c r="M12" s="43"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>4</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G13" s="26" t="n">
         <f t="shared" si="0"/>
-        <v>96546.0</v>
+        <v>97936.0</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I13" s="21" t="n">
-        <v>309.0</v>
+        <v>75.0</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
       <c r="M13" s="44"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>5</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="26" t="n">
-        <f t="shared" si="0"/>
-        <v>96669.0</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="21" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="25"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>6</v>
       </c>
@@ -1399,7 +1383,7 @@
       <c r="I15" s="21"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>7</v>
       </c>
@@ -1416,7 +1400,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>8</v>
       </c>
@@ -1433,7 +1417,7 @@
       <c r="I17" s="21"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>9</v>
       </c>
@@ -1450,7 +1434,7 @@
       <c r="I18" s="21"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>10</v>
       </c>
@@ -1467,7 +1451,7 @@
       <c r="I19" s="21"/>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -1484,7 +1468,7 @@
       <c r="I20" s="21"/>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1501,7 +1485,7 @@
       <c r="I21" s="21"/>
       <c r="J21" s="19"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1518,7 +1502,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="19"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -1535,7 +1519,7 @@
       <c r="I23" s="21"/>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -1552,7 +1536,7 @@
       <c r="I24" s="21"/>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -1569,7 +1553,7 @@
       <c r="I25" s="21"/>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>19</v>
       </c>
@@ -1586,7 +1570,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>20</v>
       </c>
@@ -1603,7 +1587,7 @@
       <c r="I27" s="21"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>21</v>
       </c>
@@ -1620,7 +1604,7 @@
       <c r="I28" s="21"/>
       <c r="J28" s="19"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>22</v>
       </c>
@@ -1637,7 +1621,7 @@
       <c r="I29" s="21"/>
       <c r="J29" s="19"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>23</v>
       </c>
@@ -1654,7 +1638,7 @@
       <c r="I30" s="21"/>
       <c r="J30" s="19"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>24</v>
       </c>
@@ -1671,7 +1655,7 @@
       <c r="I31" s="21"/>
       <c r="J31" s="19"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>25</v>
       </c>
@@ -1688,7 +1672,7 @@
       <c r="I32" s="21"/>
       <c r="J32" s="19"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>26</v>
       </c>
@@ -1705,7 +1689,7 @@
       <c r="I33" s="21"/>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>29</v>
       </c>
@@ -1722,7 +1706,7 @@
       <c r="I34" s="21"/>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>30</v>
       </c>
@@ -1739,7 +1723,7 @@
       <c r="I35" s="21"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>31</v>
       </c>
@@ -1756,7 +1740,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>32</v>
       </c>
@@ -1773,7 +1757,7 @@
       <c r="I37" s="21"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>33</v>
       </c>
@@ -1790,7 +1774,7 @@
       <c r="I38" s="21"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>34</v>
       </c>
@@ -1807,7 +1791,7 @@
       <c r="I39" s="21"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>35</v>
       </c>
@@ -1824,7 +1808,7 @@
       <c r="I40" s="21"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>36</v>
       </c>
@@ -1841,7 +1825,7 @@
       <c r="I41" s="21"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>37</v>
       </c>
@@ -1858,7 +1842,7 @@
       <c r="I42" s="21"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>38</v>
       </c>
@@ -1875,7 +1859,7 @@
       <c r="I43" s="21"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>39</v>
       </c>
@@ -1892,7 +1876,7 @@
       <c r="I44" s="21"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>40</v>
       </c>
@@ -1909,7 +1893,7 @@
       <c r="I45" s="21"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>41</v>
       </c>
@@ -1926,7 +1910,7 @@
       <c r="I46" s="21"/>
       <c r="J46" s="19"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>42</v>
       </c>
@@ -1943,7 +1927,7 @@
       <c r="I47" s="21"/>
       <c r="J47" s="19"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>43</v>
       </c>
@@ -1960,7 +1944,7 @@
       <c r="I48" s="21"/>
       <c r="J48" s="19"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>44</v>
       </c>
@@ -1977,7 +1961,7 @@
       <c r="I49" s="21"/>
       <c r="J49" s="19"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>45</v>
       </c>
@@ -1994,7 +1978,7 @@
       <c r="I50" s="21"/>
       <c r="J50" s="19"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>46</v>
       </c>
@@ -2011,7 +1995,7 @@
       <c r="I51" s="21"/>
       <c r="J51" s="19"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>47</v>
       </c>
@@ -2028,7 +2012,7 @@
       <c r="I52" s="21"/>
       <c r="J52" s="19"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>48</v>
       </c>
@@ -2045,7 +2029,7 @@
       <c r="I53" s="21"/>
       <c r="J53" s="19"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>49</v>
       </c>
@@ -2062,7 +2046,7 @@
       <c r="I54" s="21"/>
       <c r="J54" s="19"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>50</v>
       </c>
@@ -2079,7 +2063,7 @@
       <c r="I55" s="21"/>
       <c r="J55" s="19"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>51</v>
       </c>
@@ -2096,7 +2080,7 @@
       <c r="I56" s="21"/>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>52</v>
       </c>
@@ -2113,7 +2097,7 @@
       <c r="I57" s="21"/>
       <c r="J57" s="19"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>53</v>
       </c>
@@ -2130,7 +2114,7 @@
       <c r="I58" s="21"/>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>54</v>
       </c>
@@ -2147,7 +2131,7 @@
       <c r="I59" s="21"/>
       <c r="J59" s="19"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>55</v>
       </c>
@@ -2164,7 +2148,7 @@
       <c r="I60" s="21"/>
       <c r="J60" s="19"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>56</v>
       </c>
@@ -2181,7 +2165,7 @@
       <c r="I61" s="21"/>
       <c r="J61" s="19"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>57</v>
       </c>
@@ -2198,7 +2182,7 @@
       <c r="I62" s="21"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>58</v>
       </c>
@@ -2215,7 +2199,7 @@
       <c r="I63" s="21"/>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>59</v>
       </c>
@@ -2232,7 +2216,7 @@
       <c r="I64" s="21"/>
       <c r="J64" s="19"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>60</v>
       </c>
@@ -2249,7 +2233,7 @@
       <c r="I65" s="21"/>
       <c r="J65" s="19"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>61</v>
       </c>
@@ -2266,7 +2250,7 @@
       <c r="I66" s="21"/>
       <c r="J66" s="19"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>62</v>
       </c>
@@ -2283,7 +2267,7 @@
       <c r="I67" s="21"/>
       <c r="J67" s="19"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>63</v>
       </c>
@@ -2300,7 +2284,7 @@
       <c r="I68" s="21"/>
       <c r="J68" s="19"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>64</v>
       </c>
@@ -2317,7 +2301,7 @@
       <c r="I69" s="21"/>
       <c r="J69" s="19"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>65</v>
       </c>
@@ -2334,7 +2318,7 @@
       <c r="I70" s="21"/>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>66</v>
       </c>
@@ -2351,7 +2335,7 @@
       <c r="I71" s="21"/>
       <c r="J71" s="19"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>67</v>
       </c>
@@ -2368,7 +2352,7 @@
       <c r="I72" s="21"/>
       <c r="J72" s="19"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>68</v>
       </c>
@@ -2385,7 +2369,7 @@
       <c r="I73" s="21"/>
       <c r="J73" s="19"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>69</v>
       </c>
@@ -2402,7 +2386,7 @@
       <c r="I74" s="21"/>
       <c r="J74" s="19"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>70</v>
       </c>
@@ -2419,7 +2403,7 @@
       <c r="I75" s="21"/>
       <c r="J75" s="19"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>71</v>
       </c>
@@ -2436,7 +2420,7 @@
       <c r="I76" s="21"/>
       <c r="J76" s="19"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>72</v>
       </c>
@@ -2453,7 +2437,7 @@
       <c r="I77" s="21"/>
       <c r="J77" s="19"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>73</v>
       </c>
@@ -2470,7 +2454,7 @@
       <c r="I78" s="21"/>
       <c r="J78" s="19"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>74</v>
       </c>
@@ -2487,7 +2471,7 @@
       <c r="I79" s="21"/>
       <c r="J79" s="19"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>75</v>
       </c>
@@ -2504,7 +2488,7 @@
       <c r="I80" s="21"/>
       <c r="J80" s="19"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>76</v>
       </c>
@@ -2521,7 +2505,7 @@
       <c r="I81" s="21"/>
       <c r="J81" s="19"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>77</v>
       </c>
@@ -2538,7 +2522,7 @@
       <c r="I82" s="21"/>
       <c r="J82" s="19"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>78</v>
       </c>
@@ -2555,7 +2539,7 @@
       <c r="I83" s="21"/>
       <c r="J83" s="19"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>79</v>
       </c>
@@ -2572,7 +2556,7 @@
       <c r="I84" s="21"/>
       <c r="J84" s="19"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>80</v>
       </c>
@@ -2589,7 +2573,7 @@
       <c r="I85" s="21"/>
       <c r="J85" s="19"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>81</v>
       </c>
@@ -2606,7 +2590,7 @@
       <c r="I86" s="21"/>
       <c r="J86" s="19"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>82</v>
       </c>
@@ -2623,7 +2607,7 @@
       <c r="I87" s="21"/>
       <c r="J87" s="19"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>83</v>
       </c>
@@ -2640,7 +2624,7 @@
       <c r="I88" s="21"/>
       <c r="J88" s="19"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>84</v>
       </c>
@@ -2657,7 +2641,7 @@
       <c r="I89" s="21"/>
       <c r="J89" s="19"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>85</v>
       </c>
@@ -2674,7 +2658,7 @@
       <c r="I90" s="21"/>
       <c r="J90" s="19"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>86</v>
       </c>
@@ -2691,7 +2675,7 @@
       <c r="I91" s="21"/>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>87</v>
       </c>
@@ -2708,7 +2692,7 @@
       <c r="I92" s="21"/>
       <c r="J92" s="19"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>88</v>
       </c>
@@ -2725,7 +2709,7 @@
       <c r="I93" s="21"/>
       <c r="J93" s="19"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>89</v>
       </c>
@@ -2742,7 +2726,7 @@
       <c r="I94" s="21"/>
       <c r="J94" s="19"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>90</v>
       </c>
@@ -2759,7 +2743,7 @@
       <c r="I95" s="21"/>
       <c r="J95" s="19"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>91</v>
       </c>
@@ -2776,7 +2760,7 @@
       <c r="I96" s="21"/>
       <c r="J96" s="19"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>92</v>
       </c>
@@ -2793,7 +2777,7 @@
       <c r="I97" s="21"/>
       <c r="J97" s="19"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>93</v>
       </c>
@@ -2810,7 +2794,7 @@
       <c r="I98" s="21"/>
       <c r="J98" s="19"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>94</v>
       </c>
@@ -2827,7 +2811,7 @@
       <c r="I99" s="21"/>
       <c r="J99" s="19"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>95</v>
       </c>
@@ -2844,7 +2828,7 @@
       <c r="I100" s="21"/>
       <c r="J100" s="19"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>96</v>
       </c>
@@ -2861,7 +2845,7 @@
       <c r="I101" s="21"/>
       <c r="J101" s="19"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>97</v>
       </c>
@@ -2878,7 +2862,7 @@
       <c r="I102" s="21"/>
       <c r="J102" s="19"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>98</v>
       </c>
@@ -2897,13 +2881,13 @@
       <c r="K103" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L103" s="35">
+      <c r="L103" s="35" t="str">
         <f>SUM(I10:I105)</f>
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="M103" s="36"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>99</v>
       </c>
@@ -2922,16 +2906,16 @@
       <c r="K104" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L104" s="38">
+      <c r="L104" s="38" t="str">
         <f>SUMIF(J10:J105,"M",I10:I105)</f>
-        <v>0</v>
-      </c>
-      <c r="M104" s="39" t="e">
+        <v>222</v>
+      </c>
+      <c r="M104" s="39" t="str">
         <f>L104/L103</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+        <v>59%</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>100</v>
       </c>
@@ -2950,9 +2934,9 @@
       <c r="K105" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="L105" s="41">
+      <c r="L105" s="41" t="str">
         <f>C5+L103</f>
-        <v>0</v>
+        <v>97936</v>
       </c>
       <c r="M105" s="42"/>
     </row>

--- a/2020-07_Tőke_Tamás_PRB-374_gkelsz.xlsx
+++ b/2020-07_Tőke_Tamás_PRB-374_gkelsz.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="93">
   <si>
     <t>ÚTNYILVÁNTARTÁS</t>
   </si>
@@ -131,7 +131,7 @@
     <t>97564</t>
   </si>
   <si>
-    <t>97936</t>
+    <t>99410</t>
   </si>
   <si>
     <t>Tőke Tamás</t>
@@ -143,10 +143,52 @@
     <t>5,7</t>
   </si>
   <si>
-    <t>20.7</t>
-  </si>
-  <si>
-    <t>2020-07-01</t>
+    <t>178.62</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>Hibajavítás</t>
+  </si>
+  <si>
+    <t>Székesfehérvár Udvardi utca 1/A</t>
+  </si>
+  <si>
+    <t>Zirc Petőfi Sándor u. 2</t>
+  </si>
+  <si>
+    <t>CASH2512/K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>telephely/telephely</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>Veszprém Ádám Iván u. 2.</t>
+  </si>
+  <si>
+    <t>S06041_ENA/ERSTE BANK HUNGARY Zrt</t>
+  </si>
+  <si>
+    <t>Siófok Fő u. 156-160.</t>
+  </si>
+  <si>
+    <t>EDHU0194/Euronet Banktechnikai Szolgáltató K</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>telephelytelephely</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
   </si>
   <si>
     <t>Magán</t>
@@ -155,22 +197,121 @@
     <t>Magánhasználat</t>
   </si>
   <si>
-    <t>Hibajavítás</t>
-  </si>
-  <si>
-    <t>Székesfehérvár Udvardi utca 1/A</t>
-  </si>
-  <si>
-    <t>Csömör Szabadság út 16.</t>
-  </si>
-  <si>
-    <t>S6T65121MTB Magyar Takarékszövetkezeti Bank</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>telephely/telephely</t>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>Tamási Szabadság út 33.</t>
+  </si>
+  <si>
+    <t>DBD82220238/OTP BANK Nyrt.</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>Székesfehérvár Kossuth u. 14.</t>
+  </si>
+  <si>
+    <t>MGND2401/MagNet Magyar Közösségi Bank Zrt.</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>Veszprém Szabadság tér 8.</t>
+  </si>
+  <si>
+    <t>S6T17614/Sopron Bank Zrt.</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
+  </si>
+  <si>
+    <t>Mór Deák F. u. 2.</t>
+  </si>
+  <si>
+    <t>DBD82220135/OTP BANK Nyrt.</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>Balatonboglár Dózsa Gy. u. 1.</t>
+  </si>
+  <si>
+    <t>DBD82220236OTP BANK Nyrt.</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>Öttevény Fő út 104</t>
+  </si>
+  <si>
+    <t>S6T59005/MTB Magyar Takarékszövetkezeti Bank</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>Veszprém Ady Endre u. 1.</t>
+  </si>
+  <si>
+    <t>CA38_ENA/UniCredit Bank Hungary Zrt.</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>Székesfehérvár Balatoni u. 21.</t>
+  </si>
+  <si>
+    <t>CIB - ATM638/CIB Bank Zrt</t>
+  </si>
+  <si>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>Ajka Szabadság tér 18.</t>
+  </si>
+  <si>
+    <t>DBD82220092/OTP BANK Nyrt.</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>Siófok Fő tér 1.</t>
+  </si>
+  <si>
+    <t>S09210ERSTE BANK HUNGARY Zrt</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>Veszprém Cserhát ltp. 8.</t>
+  </si>
+  <si>
+    <t>CASH2283K &amp; H BANK ZRT.</t>
+  </si>
+  <si>
+    <t>2020-07-30</t>
+  </si>
+  <si>
+    <t>Várpalota Újlaki u. 2.</t>
+  </si>
+  <si>
+    <t>DBD82220228OTP BANK Nyrt.</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>Ságvár Petőfi u. 18/6</t>
+  </si>
+  <si>
+    <t>S6T50827/MTB Magyar Takarékszövetkezeti Bank</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1263,7 @@
       </c>
       <c r="G5" s="8" t="str">
         <f>SUM(I10:I105)</f>
-        <v>372</v>
+        <v>1846</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -1139,7 +1280,7 @@
       </c>
       <c r="G6" s="9" t="str">
         <f>100*G7/G5</f>
-        <v>5.564</v>
+        <v>9.676</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
@@ -1225,23 +1366,23 @@
         <v>39</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="26" t="n">
         <f>IF(B10&lt;&gt;"",$C$5+I10,"")</f>
-        <v>97675.0</v>
+        <v>97625.0</v>
       </c>
       <c r="H10" s="21" t="n">
-        <v>12.2</v>
+        <v>0.0</v>
       </c>
       <c r="I10" s="21" t="n">
-        <v>111.0</v>
+        <v>61.0</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1255,26 +1396,26 @@
         <v>38</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G11" s="26" t="n">
         <f>IF(B11&lt;&gt;"",G10+I11,"")</f>
-        <v>97786.0</v>
+        <v>97686.0</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I11" s="21" t="n">
-        <v>111.0</v>
+        <v>61.0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1282,32 +1423,32 @@
         <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G12" s="26" t="n">
         <f t="shared" ref="G12:G54" si="0">IF(B12&lt;&gt;"",G11+I12,"")</f>
-        <v>97861.0</v>
+        <v>97735.0</v>
       </c>
       <c r="H12" s="21" t="n">
-        <v>8.5</v>
+        <v>0.0</v>
       </c>
       <c r="I12" s="21" t="n">
-        <v>75.0</v>
+        <v>49.0</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
@@ -1318,32 +1459,32 @@
         <v>4</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G13" s="26" t="n">
         <f t="shared" si="0"/>
-        <v>97936.0</v>
+        <v>97783.0</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="I13" s="21" t="n">
-        <v>75.0</v>
+        <v>48.0</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
@@ -1353,511 +1494,991 @@
       <c r="A14" s="19">
         <v>5</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>97837.0</v>
+      </c>
+      <c r="H14" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="21" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>6</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="19"/>
+      <c r="B15" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>97891.0</v>
+      </c>
+      <c r="H15" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="21" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>7</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>97945.0</v>
+      </c>
+      <c r="H16" s="21" t="n">
+        <v>47.53</v>
+      </c>
+      <c r="I16" s="21" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>8</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98000.0</v>
+      </c>
+      <c r="H17" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="21" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>9</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98090.0</v>
+      </c>
+      <c r="H18" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="21" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>10</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="19"/>
+      <c r="B19" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98180.0</v>
+      </c>
+      <c r="H19" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="21" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>12</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98185.0</v>
+      </c>
+      <c r="H20" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>13</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98190.0</v>
+      </c>
+      <c r="H21" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>14</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98239.0</v>
+      </c>
+      <c r="H22" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="21" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>15</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="19"/>
+      <c r="B23" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98288.0</v>
+      </c>
+      <c r="H23" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="21" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>16</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98318.0</v>
+      </c>
+      <c r="H24" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="21" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>17</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="19"/>
+      <c r="B25" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98348.0</v>
+      </c>
+      <c r="H25" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="21" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>19</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="19"/>
+      <c r="B26" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98440.0</v>
+      </c>
+      <c r="H26" s="21" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="I26" s="21" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>20</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="19"/>
+      <c r="B27" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98532.0</v>
+      </c>
+      <c r="H27" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="21" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>21</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="19"/>
+      <c r="B28" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98637.0</v>
+      </c>
+      <c r="H28" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="21" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>22</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="19"/>
+      <c r="B29" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98742.0</v>
+      </c>
+      <c r="H29" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="21" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>23</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="19"/>
+      <c r="B30" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98791.0</v>
+      </c>
+      <c r="H30" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="21" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>24</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="19"/>
+      <c r="B31" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98840.0</v>
+      </c>
+      <c r="H31" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="21" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>25</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="19"/>
+      <c r="B32" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98846.0</v>
+      </c>
+      <c r="H32" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>26</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="19"/>
+      <c r="B33" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98852.0</v>
+      </c>
+      <c r="H33" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>29</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="19"/>
+      <c r="B34" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>98934.0</v>
+      </c>
+      <c r="H34" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I34" s="21" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>30</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="19"/>
+      <c r="B35" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>99016.0</v>
+      </c>
+      <c r="H35" s="21" t="n">
+        <v>46.48</v>
+      </c>
+      <c r="I35" s="21" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>31</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="19"/>
+      <c r="B36" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>99070.0</v>
+      </c>
+      <c r="H36" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I36" s="21" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>32</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="19"/>
+      <c r="B37" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>99124.0</v>
+      </c>
+      <c r="H37" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="21" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>33</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="19"/>
+      <c r="B38" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>99174.0</v>
+      </c>
+      <c r="H38" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="21" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>34</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="19"/>
+      <c r="B39" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>99224.0</v>
+      </c>
+      <c r="H39" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I39" s="21" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>35</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="19"/>
+      <c r="B40" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>99256.0</v>
+      </c>
+      <c r="H40" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I40" s="21" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>36</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="19"/>
+      <c r="B41" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>99288.0</v>
+      </c>
+      <c r="H41" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I41" s="21" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>37</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="19"/>
+      <c r="B42" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>99349.0</v>
+      </c>
+      <c r="H42" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I42" s="21" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>38</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="19"/>
+      <c r="B43" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>99410.0</v>
+      </c>
+      <c r="H43" s="21" t="n">
+        <v>38.86</v>
+      </c>
+      <c r="I43" s="21" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
@@ -2883,7 +3504,7 @@
       </c>
       <c r="L103" s="35" t="str">
         <f>SUM(I10:I105)</f>
-        <v>372</v>
+        <v>1846</v>
       </c>
       <c r="M103" s="36"/>
     </row>
@@ -2908,11 +3529,11 @@
       </c>
       <c r="L104" s="38" t="str">
         <f>SUMIF(J10:J105,"M",I10:I105)</f>
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="M104" s="39" t="str">
         <f>L104/L103</f>
-        <v>59%</v>
+        <v>2.%</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -2936,7 +3557,7 @@
       </c>
       <c r="L105" s="41" t="str">
         <f>C5+L103</f>
-        <v>97936</v>
+        <v>99410</v>
       </c>
       <c r="M105" s="42"/>
     </row>
